--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFD9D22-6B5A-DB40-9DC5-FF88D263C3B5}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profiling" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,15 +35,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>% Time</t>
+  </si>
+  <si>
+    <t>Cumulative Seconds</t>
+  </si>
+  <si>
+    <t>Self Seconds</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Self s/call</t>
+  </si>
+  <si>
+    <t>Total s/call</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>compute_brute_force</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>update_positions</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>get_nbr_particles</t>
+  </si>
+  <si>
+    <t>nbodybruteforce</t>
+  </si>
+  <si>
+    <t>print_parameters</t>
+  </si>
+  <si>
+    <t>read_test_case</t>
+  </si>
+  <si>
+    <t>brute force</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +456,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>89.06</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D5" s="3">
+        <v>376713688</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFD9D22-6B5A-DB40-9DC5-FF88D263C3B5}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6540B853-103C-A24C-B7A6-3ADDAA4A295A}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28720" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
   <si>
     <t>% Time</t>
   </si>
@@ -90,6 +90,93 @@
   </si>
   <si>
     <t>brute force</t>
+  </si>
+  <si>
+    <t>barnes hut</t>
+  </si>
+  <si>
+    <t>n=40,000</t>
+  </si>
+  <si>
+    <t>compute_force_particle</t>
+  </si>
+  <si>
+    <t>compute_force</t>
+  </si>
+  <si>
+    <t>insert_particle</t>
+  </si>
+  <si>
+    <t>move_all_particles</t>
+  </si>
+  <si>
+    <t>compute_force_in_node</t>
+  </si>
+  <si>
+    <t>get_octrant</t>
+  </si>
+  <si>
+    <t>move_particle</t>
+  </si>
+  <si>
+    <t>create_children</t>
+  </si>
+  <si>
+    <t>clean_tree</t>
+  </si>
+  <si>
+    <t>init_node</t>
+  </si>
+  <si>
+    <t>is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>compute_bh_force</t>
+  </si>
+  <si>
+    <t>init_tree</t>
+  </si>
+  <si>
+    <t>construct_bh_tree</t>
+  </si>
+  <si>
+    <t>getMinMax</t>
+  </si>
+  <si>
+    <t>nbodybarneshut</t>
+  </si>
+  <si>
+    <t>n=10,000</t>
+  </si>
+  <si>
+    <t>ms/call (Self)</t>
+  </si>
+  <si>
+    <t>ms/call (Total)</t>
+  </si>
+  <si>
+    <t>t=9.117465</t>
+  </si>
+  <si>
+    <t>t=2.660907</t>
+  </si>
+  <si>
+    <t>t=0.407759</t>
+  </si>
+  <si>
+    <t>n=140,005</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>t=144.142174</t>
+  </si>
+  <si>
+    <t>t=8.447759</t>
+  </si>
+  <si>
+    <t>WITHOUT MIN</t>
   </si>
 </sst>
 </file>
@@ -117,12 +204,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,11 +230,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,247 +550,2633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A2:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>89.06</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>87.67</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D7" s="3">
         <v>40000</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>8.73</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.16</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D5" s="3">
-        <v>376713688</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>89.17</v>
+      </c>
+      <c r="L7" s="2">
+        <v>60.79</v>
+      </c>
+      <c r="M7" s="2">
+        <v>60.79</v>
+      </c>
+      <c r="N7" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="B8" s="2">
         <v>4.21</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>376713688</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8.43</v>
+      </c>
+      <c r="L8" s="2">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2104872704</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="L9" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L10" s="2">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>4.21</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>87.67</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2">
+        <v>89.17</v>
+      </c>
+      <c r="L24" s="2">
+        <v>60.79</v>
+      </c>
+      <c r="M24" s="2">
+        <v>60.79</v>
+      </c>
+      <c r="N24" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>10.14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>376713688</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>8.43</v>
+      </c>
+      <c r="L25" s="2">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="M25" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2104872704</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="L26" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L27" s="2">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>4.21</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.16</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="s">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s">
+        <v>42</v>
+      </c>
+      <c r="V52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>64.78</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D55" s="3">
+        <v>196524</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="2">
+        <v>60.72</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="N55" s="3">
+        <v>703141</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="2">
+        <v>56.35</v>
+      </c>
+      <c r="V55" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="W55" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="X55" s="3">
+        <v>2217393</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4442392</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="2">
+        <v>17.61</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="N56" s="3">
+        <v>33129936</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="2">
+        <v>17.48</v>
+      </c>
+      <c r="V56" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="X56" s="3">
+        <v>99052047</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D57" s="3">
+        <v>49945</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200000</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U57" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="V57" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="X57" s="3">
+        <v>700025</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>5.89</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D58" s="3">
+        <v>557197</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N58" s="3">
+        <v>33129938</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="V58" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4442394</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="N59" s="2">
+        <v>4</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="V59" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W59" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1657373</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>221960</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="N60" s="2">
+        <v>4</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="V60" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="X60" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>156552</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1780846</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="V61" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="X61" s="3">
+        <v>7238416</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>39972</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N62" s="3">
+        <v>543141</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="V62" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="X62" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>27745</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N63" s="3">
+        <v>96981</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="V63" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="X63" s="3">
+        <v>99052049</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N64" s="2">
+        <v>6</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="V64" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="X64" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>27.91</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N65" s="2">
+        <v>2</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="V65" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="X65" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>775848</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V66" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="X66" s="3">
+        <v>304329</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V67" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="X67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>4</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>2434632</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>2</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>560020</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>2</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="X71" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0</v>
+      </c>
+      <c r="V72" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>170.2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+      <c r="X75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6540B853-103C-A24C-B7A6-3ADDAA4A295A}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32ADF242-D471-3346-A549-5EFC6D218393}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28720" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="12700" yWindow="760" windowWidth="16020" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
   <si>
     <t>% Time</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>WITHOUT MIN</t>
+  </si>
+  <si>
+    <t>t=8.349947</t>
+  </si>
+  <si>
+    <t>t=139.460127</t>
+  </si>
+  <si>
+    <t>t=1752.853442</t>
   </si>
 </sst>
 </file>
@@ -552,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,17 +1146,20 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
         <v>42</v>
       </c>
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1195,13 +1207,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>87.67</v>
+        <v>89.37</v>
       </c>
       <c r="B24" s="2">
-        <v>3.77</v>
+        <v>3.51</v>
       </c>
       <c r="C24" s="2">
-        <v>3.77</v>
+        <v>3.51</v>
       </c>
       <c r="D24" s="3">
         <v>40000</v>
@@ -1216,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="K24" s="2">
-        <v>89.17</v>
+        <v>90.5</v>
       </c>
       <c r="L24" s="2">
-        <v>60.79</v>
+        <v>59.42</v>
       </c>
       <c r="M24" s="2">
-        <v>60.79</v>
+        <v>59.42</v>
       </c>
       <c r="N24" s="3">
         <v>160000</v>
@@ -1239,13 +1251,13 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>10.14</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="B25" s="2">
-        <v>4.21</v>
+        <v>3.88</v>
       </c>
       <c r="C25" s="2">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="D25" s="3">
         <v>376713688</v>
@@ -1260,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="K25" s="2">
-        <v>8.43</v>
+        <v>8.67</v>
       </c>
       <c r="L25" s="2">
-        <v>66.540000000000006</v>
+        <v>65.11</v>
       </c>
       <c r="M25" s="2">
-        <v>5.75</v>
+        <v>5.69</v>
       </c>
       <c r="N25" s="3">
         <v>2104872704</v>
@@ -1283,78 +1295,78 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="B26" s="2">
-        <v>4.26</v>
+        <v>3.94</v>
       </c>
       <c r="C26" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>0.06</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.94</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2">
-        <v>1.26</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L26" s="2">
-        <v>67.400000000000006</v>
+        <v>65.87</v>
       </c>
       <c r="M26" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>9</v>
+        <v>0.75</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P26" s="2">
+        <v>65.87</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L27" s="2">
+        <v>65.89</v>
+      </c>
+      <c r="M27" s="2">
         <v>0.02</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="L27" s="2">
-        <v>67.459999999999994</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.06</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>9</v>
@@ -1374,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1389,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>67.47</v>
+        <v>65.89</v>
       </c>
       <c r="M28" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>4</v>
@@ -1418,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1433,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>67.47</v>
+        <v>65.89</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -1462,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1477,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>67.47</v>
+        <v>65.89</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -1506,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1518,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>67.47</v>
+        <v>65.89</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -1539,39 +1551,25 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>67.47</v>
+        <v>65.89</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -1586,52 +1584,24 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>67.47</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32ADF242-D471-3346-A549-5EFC6D218393}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C7BAD9C-7BE0-DE47-A550-CF0E4A8C4B63}"/>
   <bookViews>
     <workbookView xWindow="12700" yWindow="760" windowWidth="16020" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="50">
   <si>
     <t>% Time</t>
   </si>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1204,27 @@
       <c r="Q23" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="U23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1248,6 +1269,27 @@
       <c r="Q24" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="U24" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="V24" s="2">
+        <v>752.56</v>
+      </c>
+      <c r="W24" s="2">
+        <v>752.56</v>
+      </c>
+      <c r="X24" s="3">
+        <v>560020</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1292,6 +1334,27 @@
       <c r="Q25" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="U25" s="2">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="V25" s="2">
+        <v>828.95</v>
+      </c>
+      <c r="W25" s="2">
+        <v>76.39</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1095628752</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1336,6 +1399,27 @@
       <c r="Q26" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="U26" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="V26" s="2">
+        <v>839.69</v>
+      </c>
+      <c r="W26" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>839.7</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1380,6 +1464,27 @@
       <c r="Q27" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="U27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="V27" s="2">
+        <v>839.94</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1424,6 +1529,27 @@
       <c r="Q28" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>839.95</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="X28" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -1468,6 +1594,27 @@
       <c r="Q29" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>839.95</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1512,6 +1659,27 @@
       <c r="Q30" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>839.95</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -1554,6 +1722,27 @@
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>839.95</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1584,6 +1773,27 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>839.95</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E09C16E-657E-C64E-8ED6-68BDA6ED49C8}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B6F8C5-1C71-5C42-B987-1C4AEDC3E3B0}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="760" windowWidth="16020" windowHeight="16840" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14520" yWindow="7080" windowWidth="14880" windowHeight="10520" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B6F8C5-1C71-5C42-B987-1C4AEDC3E3B0}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC5A37D-B7ED-9740-ACB2-6B8312AB6D66}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="7080" windowWidth="14880" windowHeight="10520" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14520" yWindow="7980" windowWidth="14880" windowHeight="9540" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -330,6 +330,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC5A37D-B7ED-9740-ACB2-6B8312AB6D66}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8248BE76-C89F-6743-9224-DE97D8C99D03}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="7980" windowWidth="14880" windowHeight="9540" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="7940" windowWidth="14860" windowHeight="9580" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
   <si>
     <t>% Time</t>
   </si>
@@ -249,6 +249,33 @@
   </si>
   <si>
     <t>V: 0.000000</t>
+  </si>
+  <si>
+    <t>x: 370.005426</t>
+  </si>
+  <si>
+    <t>y: -777.413333</t>
+  </si>
+  <si>
+    <t>z: 638.266073</t>
+  </si>
+  <si>
+    <t>vx: 102.872733</t>
+  </si>
+  <si>
+    <t>vy: -200.131246</t>
+  </si>
+  <si>
+    <t>vz: 149.368799</t>
+  </si>
+  <si>
+    <t>fx: -0.339269</t>
+  </si>
+  <si>
+    <t>fy: 1.159220</t>
+  </si>
+  <si>
+    <t>fz: -1.384796</t>
   </si>
 </sst>
 </file>
@@ -633,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA76"/>
+  <dimension ref="A2:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,6 +1918,7 @@
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1899,6 +1927,7 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D35" s="1"/>
       <c r="K35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1907,6 +1936,7 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1915,6 +1945,7 @@
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D37" s="1"/>
       <c r="K37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1923,6 +1954,7 @@
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D38" s="1"/>
       <c r="K38" s="1" t="s">
         <v>66</v>
       </c>
@@ -1931,6 +1963,7 @@
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D39" s="1"/>
       <c r="K39" s="1" t="s">
         <v>67</v>
       </c>
@@ -1939,6 +1972,7 @@
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D40" s="1"/>
       <c r="K40" s="1" t="s">
         <v>68</v>
       </c>
@@ -1947,6 +1981,7 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D41" s="1"/>
       <c r="K41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1955,6 +1990,7 @@
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D42" s="1"/>
       <c r="K42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1963,6 +1999,7 @@
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D43" s="1"/>
       <c r="K43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1971,6 +2008,7 @@
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1979,6 +2017,7 @@
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>69</v>
       </c>
@@ -1987,6 +2026,7 @@
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D46" s="1"/>
       <c r="K46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3537,6 +3577,71 @@
         <v>15</v>
       </c>
     </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="109" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8248BE76-C89F-6743-9224-DE97D8C99D03}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="7940" windowWidth="14860" windowHeight="9580" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="6360" windowWidth="14860" windowHeight="11160" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8248BE76-C89F-6743-9224-DE97D8C99D03}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59E8949-26DE-8C45-8E51-456E4A388D8A}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="6360" windowWidth="14860" windowHeight="11160" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
   <si>
     <t>% Time</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>fz: -1.384796</t>
+  </si>
+  <si>
+    <t>it=20</t>
+  </si>
+  <si>
+    <t>[Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 1.579831 [s]</t>
   </si>
 </sst>
 </file>
@@ -660,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA91"/>
+  <dimension ref="A2:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3587,59 +3596,77 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59E8949-26DE-8C45-8E51-456E4A388D8A}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7EF069-BAD5-0F46-9DA7-1FBB26D542F1}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="6360" windowWidth="14860" windowHeight="11160" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="89">
   <si>
     <t>% Time</t>
   </si>
@@ -285,6 +285,24 @@
   </si>
   <si>
     <t>N-Body barnes-hut for 10000 particles : 1.579831 [s]</t>
+  </si>
+  <si>
+    <t>It remains 3433 particles in space</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 2.539090 [s]</t>
+  </si>
+  <si>
+    <t>it=50</t>
+  </si>
+  <si>
+    <t>It remains 140005 particles in space</t>
+  </si>
+  <si>
+    <t>[Particle 8] position ([-5329.642029:-9805.225775:5803.078664]) M = 396.788696</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 140005 particles : 125.159294 [s]</t>
   </si>
 </sst>
 </file>
@@ -669,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA97"/>
+  <dimension ref="A2:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,9 +3682,55 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7EF069-BAD5-0F46-9DA7-1FBB26D542F1}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DCDE59-16EE-1540-BDC2-CC157CF200B1}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="6360" windowWidth="14860" windowHeight="11160" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>% Time</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>N-Body barnes-hut for 140005 particles : 125.159294 [s]</t>
+  </si>
+  <si>
+    <t>Init forces ...Prank 0/2 | [Particle -102] position ([-48.793060:43.663887:12.782014]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/2 | [Particle -102] position ([1394.750879:-2763.277061:2113.458018]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 1.586300 [s]</t>
   </si>
 </sst>
 </file>
@@ -687,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA108"/>
+  <dimension ref="A2:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3733,6 +3742,29 @@
         <v>88</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DCDE59-16EE-1540-BDC2-CC157CF200B1}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F570D631-644A-7046-AE88-559EF254C492}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
   <si>
     <t>% Time</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>N-Body barnes-hut for 10000 particles : 1.586300 [s]</t>
+  </si>
+  <si>
+    <t> [Particle 8] position ([207.962182:-43.223152:-49.671722]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>n=10</t>
   </si>
 </sst>
 </file>
@@ -696,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA124"/>
+  <dimension ref="A2:AA132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:B119"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3765,6 +3771,19 @@
         <v>91</v>
       </c>
     </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F570D631-644A-7046-AE88-559EF254C492}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4605DE-807F-C24F-B05B-1B453C3E92FB}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
   <si>
     <t>% Time</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>n=10</t>
+  </si>
+  <si>
+    <t>[Particle 8] position ([-102.451584:-57.557934:-4.656546]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -702,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA132"/>
+  <dimension ref="A2:AA134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3771,7 +3780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>93</v>
       </c>
@@ -3779,9 +3788,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="I132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I134" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4605DE-807F-C24F-B05B-1B453C3E92FB}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B4B834-5DC9-A94F-9A04-2FCFAD03375C}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="99">
   <si>
     <t>% Time</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>WRONG</t>
+  </si>
+  <si>
+    <t>Prank 9/10 | [Particle -102] position ([426.414650:43.663887:362.782014]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -713,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3757,7 +3763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -3765,19 +3771,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L126" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B4B834-5DC9-A94F-9A04-2FCFAD03375C}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C80789-08E0-474B-AF38-83DBBF4E31AB}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -392,13 +392,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3712,12 +3713,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -3725,22 +3726,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -3748,17 +3756,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>88</v>
       </c>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C80789-08E0-474B-AF38-83DBBF4E31AB}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2117C319-88D7-1441-9A76-D40B21308B75}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="101">
   <si>
     <t>% Time</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Prank 9/10 | [Particle -102] position ([426.414650:43.663887:362.782014]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 14/20 | [Particle -102] position ([1416.424220:-2796.447655:2239.878948]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 5/7 | [Particle -102] position ([1352.201817:-2676.697111:2128.891913]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3771,6 +3777,16 @@
         <v>88</v>
       </c>
     </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2117C319-88D7-1441-9A76-D40B21308B75}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195569EF-09ED-E547-A660-F3626F8EA228}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>% Time</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Prank 5/7 | [Particle -102] position ([1352.201817:-2676.697111:2128.891913]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA134"/>
+  <dimension ref="A2:AA138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A112"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3787,64 +3793,98 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>36</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L125" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L127" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L130" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>93</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B135" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I136" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I138" t="s">
         <v>96</v>
       </c>
     </row>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195569EF-09ED-E547-A660-F3626F8EA228}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD5E6B-FC24-5A4C-A840-950C8556EE18}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="106">
   <si>
     <t>% Time</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 6/7 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 1/30 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -730,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA138"/>
+  <dimension ref="A2:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,64 +3836,103 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>36</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B131" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L133" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L135" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L130" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>93</v>
-      </c>
-      <c r="B135" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I136" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L138" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>93</v>
+      </c>
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I146" t="s">
         <v>96</v>
       </c>
     </row>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD5E6B-FC24-5A4C-A840-950C8556EE18}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55742F74-CBA0-5E46-A22C-FBA7D142E37F}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>% Time</t>
   </si>
@@ -354,6 +354,27 @@
   </si>
   <si>
     <t>Prank 1/30 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 2 ||Prank 0/1 | [Particle -102] position ([267.132693:-577.282087:488.897274]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 3 ||Prank 0/1 | [Particle -102] position ([370.005426:-777.413333:638.266073]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 4 ||Prank 0/1 | [Particle -102] position ([472.696710:-976.955704:786.860464]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 3/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 3/7 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -739,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
-  <dimension ref="A2:AA146"/>
+  <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3834,14 +3855,25 @@
       <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>9992</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -3852,10 +3884,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J119">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -3865,74 +3897,122 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J125">
+        <v>9959</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>36</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B138" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L140" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L142" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L145" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>93</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B150" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I151" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I153" t="s">
         <v>96</v>
       </c>
     </row>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55742F74-CBA0-5E46-A22C-FBA7D142E37F}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE439FB1-CC98-3240-BB72-CA354D085700}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
   <si>
     <t>% Time</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>It 1 ||Prank 3/7 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 2 ||Prank 5/7 | [Particle -102] position ([267.132693:-577.282087:488.897274]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 3 ||Prank 2/7 | [Particle -102] position ([370.005426:-777.413333:638.266073]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 4 ||Prank 5/7 | [Particle -102] position ([472.696710:-976.955704:786.860464]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 4/7 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -762,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,12 +3767,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -3768,12 +3780,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>81</v>
       </c>
@@ -3785,12 +3797,12 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -3798,32 +3810,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O111" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O113" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
@@ -3836,8 +3859,11 @@
       <c r="L114">
         <v>9998</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O114" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -3850,11 +3876,18 @@
       <c r="L115">
         <v>9998</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O115" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X115">
+        <v>9959</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>103</v>
       </c>
@@ -3867,8 +3900,11 @@
       <c r="L117">
         <v>9992</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O117" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>104</v>
       </c>
@@ -3881,8 +3917,11 @@
       <c r="L118">
         <v>9992</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O118" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>105</v>
       </c>
@@ -3895,59 +3934,28 @@
       <c r="L119">
         <v>9992</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O119" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O120" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O121" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X121">
+        <v>9959</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J125">
-        <v>9959</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE439FB1-CC98-3240-BB72-CA354D085700}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49706508-F9E2-F946-A112-5D39E722961C}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="119">
   <si>
     <t>% Time</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Prank 4/7 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/1 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>Prank 0/7 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="F119" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3956,6 +3962,45 @@
       <c r="A123" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="J123">
+        <v>20</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="L123">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J124">
+        <v>20</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L126" s="1">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L127">
+        <v>6825</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49706508-F9E2-F946-A112-5D39E722961C}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3D72B6-FDB2-874D-8569-7B8A35B425B5}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="7280" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="7320" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>% Time</t>
   </si>
@@ -341,58 +341,10 @@
     <t>Prank 5/7 | [Particle -102] position ([1352.201817:-2676.697111:2128.891913]) M = 1.000000</t>
   </si>
   <si>
-    <t>Prank 0/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 6/7 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 1/30 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
     <t>It 0 ||Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
   <si>
-    <t>It 1 ||Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 2 ||Prank 0/1 | [Particle -102] position ([267.132693:-577.282087:488.897274]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 3 ||Prank 0/1 | [Particle -102] position ([370.005426:-777.413333:638.266073]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 4 ||Prank 0/1 | [Particle -102] position ([472.696710:-976.955704:786.860464]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 0 ||Prank 3/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 1 ||Prank 3/7 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 2 ||Prank 5/7 | [Particle -102] position ([267.132693:-577.282087:488.897274]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 3 ||Prank 2/7 | [Particle -102] position ([370.005426:-777.413333:638.266073]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>It 4 ||Prank 5/7 | [Particle -102] position ([472.696710:-976.955704:786.860464]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 4/7 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 0/1 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
-  </si>
-  <si>
-    <t>Prank 0/7 | [Particle -102] position ([1394.754617:-2763.323793:2113.523203]) M = 1.000000</t>
+    <t>It 0 ||Prank 1/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -780,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F119" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L128" sqref="L128"/>
+    <sheetView tabSelected="1" topLeftCell="J111" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,172 +3787,88 @@
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O113" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J114">
-        <v>7</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <v>9998</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="L115">
-        <v>9998</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1"/>
       <c r="X115">
         <v>9959</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K116">
+        <v>9998</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117">
-        <v>2</v>
-      </c>
-      <c r="L117">
-        <v>9992</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J118">
-        <v>7</v>
-      </c>
-      <c r="K118">
-        <v>2</v>
-      </c>
-      <c r="L118">
-        <v>9992</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J119">
-        <v>30</v>
-      </c>
-      <c r="K119">
-        <v>2</v>
-      </c>
-      <c r="L119">
-        <v>9992</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="O120" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O121" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="O121" s="1"/>
       <c r="X121">
         <v>9959</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J123">
-        <v>20</v>
-      </c>
-      <c r="K123">
-        <v>7</v>
-      </c>
-      <c r="L123">
-        <v>7002</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J124">
-        <v>20</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124">
-        <v>7002</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L126" s="1">
-        <v>6825</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L127">
-        <v>6825</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3D72B6-FDB2-874D-8569-7B8A35B425B5}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6F1C490-14E6-2E4C-970F-66E24C723D08}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="7320" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>% Time</t>
   </si>
@@ -344,7 +344,16 @@
     <t>It 0 ||Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
   <si>
+    <t>It 1 ||Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
+  </si>
+  <si>
     <t>It 0 ||Prank 1/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>9993-9994</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 0/7 | [Particle -102] position ([156.617567:-361.436009:332.804455]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -732,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J111" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N116" sqref="N116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3822,7 +3831,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K116">
         <v>9998</v>
@@ -3840,18 +3849,45 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K118" t="s">
+        <v>104</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K120">
+        <v>9992</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="O121" s="1"/>
       <c r="X121">
         <v>9959</v>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6F1C490-14E6-2E4C-970F-66E24C723D08}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E3CE57-E674-5448-B8D7-0467C2A604FE}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="7320" windowWidth="14860" windowHeight="10240" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
   <si>
     <t>% Time</t>
   </si>
@@ -344,16 +344,22 @@
     <t>It 0 ||Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
   <si>
-    <t>It 1 ||Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679]) M = 1.000000</t>
-  </si>
-  <si>
     <t>It 0 ||Prank 1/7 | [Particle -102] position ([59.924918:-172.149926:183.835011]) M = 1.000000</t>
   </si>
   <si>
     <t>9993-9994</t>
   </si>
   <si>
-    <t>It 1 ||Prank 0/7 | [Particle -102] position ([156.617567:-361.436009:332.804455]) M = 1.000000</t>
+    <t>It 1 ||Prank 0/1 | [Particle -102] position ([163.920691:-375.991621:338.143679])force ([-4.722205:11.972119:-16.744329]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 0/1 | [Particle -102] position ([59.924918:-172.149926:183.835011])force ([99.213824:-215.813813:164.052997]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 6/7 | [Particle -102] position ([59.924918:-172.149926:183.835011])force ([99.213824:-215.813813:164.052997]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 1/7 | [Particle -102] position ([156.617567:-361.436009:332.804455])force ([-12.025328:26.527730:-22.083553]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -741,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:N121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3831,7 +3837,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K116">
         <v>9998</v>
@@ -3850,44 +3856,68 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O118" t="s">
         <v>103</v>
       </c>
-      <c r="K118" t="s">
-        <v>104</v>
-      </c>
-      <c r="L118">
+      <c r="P118">
         <v>7</v>
       </c>
-      <c r="M118">
+      <c r="Q118">
         <v>2</v>
       </c>
-      <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O119" s="1"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K120">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120">
         <v>9992</v>
       </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
         <v>2</v>
       </c>
-      <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A121" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
       <c r="O121" s="1"/>
       <c r="X121">
         <v>9959</v>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E3CE57-E674-5448-B8D7-0467C2A604FE}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0641E53-225B-5F4F-803C-A447B3BAF0D1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
   <si>
     <t>% Time</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>It 1 ||Prank 1/7 | [Particle -102] position ([156.617567:-361.436009:332.804455])force ([-12.025328:26.527730:-22.083553]) M = 1.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915, 1997, 1510, 431, 7236, 1430, 5425, 1916, </t>
   </si>
 </sst>
 </file>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:N121"/>
+    <sheetView tabSelected="1" topLeftCell="E113" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3900,6 +3903,9 @@
       <c r="Q120">
         <v>2</v>
       </c>
+      <c r="S120" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0641E53-225B-5F4F-803C-A447B3BAF0D1}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205FA62D-0F05-BC41-AADB-31508B7594D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="123">
   <si>
     <t>% Time</t>
   </si>
@@ -363,6 +364,48 @@
   </si>
   <si>
     <t xml:space="preserve">1915, 1997, 1510, 431, 7236, 1430, 5425, 1916, </t>
+  </si>
+  <si>
+    <t>it 0</t>
+  </si>
+  <si>
+    <t>7 processes</t>
+  </si>
+  <si>
+    <t>Particle -110 | 1915 is out of scope. (-3643.998509, 706.514780, 3054.752890)</t>
+  </si>
+  <si>
+    <t>Particle 0 | 1997 is out of scope. (1631.498537, -2757.314864, -6008.572338)</t>
+  </si>
+  <si>
+    <t>it 1</t>
+  </si>
+  <si>
+    <t>Particle -89 | 1510 is out of scope. (-2750.103384, -2055.640975, 2422.897684)</t>
+  </si>
+  <si>
+    <t>Particle 0 | 431 is out of scope. (-1357.040141, -4207.936284, 1041.909159)</t>
+  </si>
+  <si>
+    <t>Particle 0 | 1430 is out of scope. (1329.524005, -49.152142, -4359.330913)</t>
+  </si>
+  <si>
+    <t>Particle 6433 | 7236 is out of scope. (-3664.188083, 730.256185, 543.224267)</t>
+  </si>
+  <si>
+    <t>Particle -93 | 5425 is out of scope. (-2721.108744, 141.490751, 8156.506149)</t>
+  </si>
+  <si>
+    <t>Particle 0 | 1916 is out of scope. (-3883.849451, 4087.298748, 11920.425787)</t>
+  </si>
+  <si>
+    <t>1 proc</t>
+  </si>
+  <si>
+    <t>Particle -89 | 1510 is out of scope. (-2750.103302, -2055.639543, 2422.893770)</t>
+  </si>
+  <si>
+    <t>Particle 0 | 431 is out of scope. (-1357.041308, -4207.934361, 1041.908527)</t>
   </si>
 </sst>
 </file>
@@ -750,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E113" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U122" sqref="U122"/>
+    <sheetView topLeftCell="J112" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S120" sqref="S120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4012,4 +4055,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205FA62D-0F05-BC41-AADB-31508B7594D4}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0A22F1-59AF-0542-9DE0-6BB18C79202E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="247">
   <si>
     <t>% Time</t>
   </si>
@@ -291,9 +291,6 @@
     <t>It remains 3433 particles in space</t>
   </si>
   <si>
-    <t>N-Body barnes-hut for 10000 particles : 2.539090 [s]</t>
-  </si>
-  <si>
     <t>it=50</t>
   </si>
   <si>
@@ -366,46 +363,421 @@
     <t xml:space="preserve">1915, 1997, 1510, 431, 7236, 1430, 5425, 1916, </t>
   </si>
   <si>
-    <t>it 0</t>
-  </si>
-  <si>
-    <t>7 processes</t>
-  </si>
-  <si>
-    <t>Particle -110 | 1915 is out of scope. (-3643.998509, 706.514780, 3054.752890)</t>
-  </si>
-  <si>
-    <t>Particle 0 | 1997 is out of scope. (1631.498537, -2757.314864, -6008.572338)</t>
-  </si>
-  <si>
-    <t>it 1</t>
-  </si>
-  <si>
-    <t>Particle -89 | 1510 is out of scope. (-2750.103384, -2055.640975, 2422.897684)</t>
-  </si>
-  <si>
-    <t>Particle 0 | 431 is out of scope. (-1357.040141, -4207.936284, 1041.909159)</t>
-  </si>
-  <si>
-    <t>Particle 0 | 1430 is out of scope. (1329.524005, -49.152142, -4359.330913)</t>
-  </si>
-  <si>
-    <t>Particle 6433 | 7236 is out of scope. (-3664.188083, 730.256185, 543.224267)</t>
-  </si>
-  <si>
-    <t>Particle -93 | 5425 is out of scope. (-2721.108744, 141.490751, 8156.506149)</t>
-  </si>
-  <si>
-    <t>Particle 0 | 1916 is out of scope. (-3883.849451, 4087.298748, 11920.425787)</t>
-  </si>
-  <si>
-    <t>1 proc</t>
-  </si>
-  <si>
-    <t>Particle -89 | 1510 is out of scope. (-2750.103302, -2055.639543, 2422.893770)</t>
-  </si>
-  <si>
-    <t>Particle 0 | 431 is out of scope. (-1357.041308, -4207.934361, 1041.908527)</t>
+    <t>Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 2.637203 [s]</t>
+  </si>
+  <si>
+    <t>0: ITERATION 0</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 0/7 | [Particle -102, 7] position ([59.924918:-172.149926:183.835011])force ([99.213824:-215.813813:164.052997]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 1</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 0/7 | [Particle -102, 7] position ([163.920691:-375.991621:338.143679])force ([-4.722205:11.972119:-16.744329]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 2</t>
+  </si>
+  <si>
+    <t>It 2 ||Prank 0/7 | [Particle -102, 7] position ([267.132693:-577.282087:488.897274])force ([-0.783771:2.551229:-3.555073]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 3</t>
+  </si>
+  <si>
+    <t>It 3 ||Prank 0/7 | [Particle -102, 7] position ([370.005426:-777.413333:638.266073])force ([-0.339269:1.159220:-1.384796]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 4</t>
+  </si>
+  <si>
+    <t>It 4 ||Prank 0/7 | [Particle -102, 7] position ([472.696710:-976.955704:786.860464])force ([-0.181448:0.588875:-0.774408]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 5</t>
+  </si>
+  <si>
+    <t>It 5 ||Prank 0/7 | [Particle -102, 7] position ([575.276401:-1176.105022:934.984043])force ([-0.111592:0.393052:-0.470812]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 6</t>
+  </si>
+  <si>
+    <t>It 6 ||Prank 0/7 | [Particle -102, 7] position ([677.793874:-1374.987392:1082.792471])force ([-0.062219:0.266948:-0.315151]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 7</t>
+  </si>
+  <si>
+    <t>It 7 ||Prank 0/7 | [Particle -102, 7] position ([780.264090:-1573.680660:1230.373937])force ([-0.047256:0.189101:-0.226962]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 8</t>
+  </si>
+  <si>
+    <t>It 8 ||Prank 0/7 | [Particle -102, 7] position ([882.712156:-1772.227550:1377.801862])force ([-0.022151:0.146379:-0.153542]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 9</t>
+  </si>
+  <si>
+    <t>It 9 ||Prank 0/7 | [Particle -102, 7] position ([985.142246:-1970.641150:1525.102473])force ([-0.017975:0.133290:-0.127313]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 10</t>
+  </si>
+  <si>
+    <t>It 10 ||Prank 0/7 | [Particle -102, 7] position ([1087.557863:-2168.946405:1672.306029])force ([-0.014474:0.108345:-0.097056]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 11</t>
+  </si>
+  <si>
+    <t>It 11 ||Prank 0/7 | [Particle -102, 7] position ([1189.961272:-2367.153117:1819.432733])force ([-0.012206:0.098542:-0.076851]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 44</t>
+  </si>
+  <si>
+    <t>0: ITERATION 45</t>
+  </si>
+  <si>
+    <t>0: ITERATION 46</t>
+  </si>
+  <si>
+    <t>0: ITERATION 47</t>
+  </si>
+  <si>
+    <t>0: ITERATION 48</t>
+  </si>
+  <si>
+    <t>0: ITERATION 49</t>
+  </si>
+  <si>
+    <t>It 0 ||Prank 0/1 | [Particle -102, 7] position ([59.924918:-172.149926:183.835011])force ([99.213824:-215.813813:164.052997]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 1 ||Prank 0/1 | [Particle -102, 7] position ([163.920691:-375.991621:338.143679])force ([-4.722205:11.972119:-16.744329]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 2 ||Prank 0/1 | [Particle -102, 7] position ([267.132693:-577.282087:488.897274])force ([-0.783771:2.551229:-3.555073]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 3 ||Prank 0/1 | [Particle -102, 7] position ([370.005426:-777.413333:638.266073])force ([-0.339269:1.159220:-1.384796]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 4 ||Prank 0/1 | [Particle -102, 7] position ([472.696710:-976.955704:786.860464])force ([-0.181448:0.588875:-0.774408]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 5 ||Prank 0/1 | [Particle -102, 7] position ([575.276401:-1176.105022:934.984043])force ([-0.111592:0.393052:-0.470812]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 6 ||Prank 0/1 | [Particle -102, 7] position ([677.793874:-1374.987392:1082.792471])force ([-0.062219:0.266948:-0.315151]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 7 ||Prank 0/1 | [Particle -102, 7] position ([780.264090:-1573.680660:1230.373937])force ([-0.047256:0.189101:-0.226962]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 8 ||Prank 0/1 | [Particle -102, 7] position ([882.712156:-1772.227550:1377.801862])force ([-0.022151:0.146379:-0.153542]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 9 ||Prank 0/1 | [Particle -102, 7] position ([985.142246:-1970.641150:1525.102473])force ([-0.017975:0.133290:-0.127313]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 10 ||Prank 0/1 | [Particle -102, 7] position ([1087.557863:-2168.946405:1672.306029])force ([-0.014474:0.108345:-0.097056]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 11 ||Prank 0/1 | [Particle -102, 7] position ([1189.961272:-2367.153117:1819.432733])force ([-0.012206:0.098542:-0.076851]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 12</t>
+  </si>
+  <si>
+    <t>It 12 ||Prank 0/1 | [Particle -102, 7] position ([1292.358705:-2565.275177:1966.497389])force ([-0.005978:0.084653:-0.062048]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 13</t>
+  </si>
+  <si>
+    <t>It 13 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 14</t>
+  </si>
+  <si>
+    <t>It 14 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 15</t>
+  </si>
+  <si>
+    <t>It 15 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 16</t>
+  </si>
+  <si>
+    <t>It 16 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 17</t>
+  </si>
+  <si>
+    <t>It 17 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 18</t>
+  </si>
+  <si>
+    <t>It 18 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 19</t>
+  </si>
+  <si>
+    <t>It 19 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 20</t>
+  </si>
+  <si>
+    <t>It 20 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 21</t>
+  </si>
+  <si>
+    <t>It 21 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 22</t>
+  </si>
+  <si>
+    <t>It 22 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 23</t>
+  </si>
+  <si>
+    <t>It 23 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 24</t>
+  </si>
+  <si>
+    <t>It 24 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 25</t>
+  </si>
+  <si>
+    <t>It 25 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 26</t>
+  </si>
+  <si>
+    <t>It 26 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 27</t>
+  </si>
+  <si>
+    <t>It 27 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 28</t>
+  </si>
+  <si>
+    <t>It 28 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 29</t>
+  </si>
+  <si>
+    <t>It 29 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 30</t>
+  </si>
+  <si>
+    <t>It 30 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 31</t>
+  </si>
+  <si>
+    <t>It 31 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 32</t>
+  </si>
+  <si>
+    <t>It 32 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 33</t>
+  </si>
+  <si>
+    <t>It 33 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 34</t>
+  </si>
+  <si>
+    <t>It 34 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 35</t>
+  </si>
+  <si>
+    <t>It 35 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 36</t>
+  </si>
+  <si>
+    <t>It 36 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 37</t>
+  </si>
+  <si>
+    <t>It 37 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 38</t>
+  </si>
+  <si>
+    <t>It 38 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 39</t>
+  </si>
+  <si>
+    <t>It 39 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 40</t>
+  </si>
+  <si>
+    <t>It 40 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 41</t>
+  </si>
+  <si>
+    <t>It 41 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 42</t>
+  </si>
+  <si>
+    <t>It 42 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>0: ITERATION 43</t>
+  </si>
+  <si>
+    <t>It 43 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 44 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 45 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 46 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 47 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 48 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 49 ||Prank 0/1 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 2.558008 [s]</t>
+  </si>
+  <si>
+    <t>It 12 ||Prank 0/7 | [Particle -102, 7] position ([1292.358705:-2565.275177:1966.497389])force ([-0.005978:0.084653:-0.062048]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 13 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.001520:0.073444:-0.038841]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 14 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.010638:0.514105:-0.271890]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 15 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.074468:3.598733:-1.903231]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 16 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-0.521273:25.191129:-13.322620]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 17 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-3.648913:176.337901:-93.258337]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 18 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-25.542389:1234.365310:-652.808362]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 19 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-178.796726:8640.557169:-4569.658532]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 20 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-1251.577083:60483.900182:-31987.609724]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 21 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-8761.039583:423387.301275:-223913.268067]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 22 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-61327.277079:2963711.108927:-1567392.876472]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 23 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-429290.939551:20745977.762490:-10971750.135305]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 24 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-3005036.576859:145221844.337432:-76802250.947136]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 25 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-21035256.038013:1016552910.362023:-537615756.629949]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 26 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-147246792.266092:7115870372.534158:-3763310296.409642]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 27 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-1030727545.862646:49811092607.739105:-26343172074.867496]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 28 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-7215092821.038519:348677648254.173706:-184402204524.072479]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 29 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-50505649747.269630:2440743537779.215820:-1290815431668.507324]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 30 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-353539548230.887451:17085204764454.511719:-9035708021679.550781]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 31 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-2474776837616.211914:119596433351181.578125:-63249956151756.859375]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 32 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-17323437863313.484375:837175033458271.000000:-442749693062298.000000]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 33 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-121264065043194.390625:5860225234207897.000000:-3099247851436086.000000]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 34 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-848848455302360.750000:41021576639455280.000000:-21694734960052600.000000]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>It 35 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-5941939187116525.000000:287151036476186944.000000:-151863144720368192.000000]) M = 1.000000</t>
   </si>
 </sst>
 </file>
@@ -793,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView topLeftCell="J112" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S120" sqref="S120"/>
+    <sheetView topLeftCell="A99" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3796,7 +4168,7 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -3806,7 +4178,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3815,10 +4187,15 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -3826,33 +4203,33 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O112" s="1"/>
     </row>
@@ -3865,7 +4242,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K115">
         <v>9998</v>
@@ -3883,7 +4260,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K116">
         <v>9998</v>
@@ -3902,10 +4279,10 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P118">
         <v>7</v>
@@ -3916,13 +4293,13 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3947,12 +4324,12 @@
         <v>2</v>
       </c>
       <c r="S120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3996,60 +4373,60 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L145" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4059,92 +4436,771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A3:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="59" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="X16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="X26" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="1" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="X27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>119</v>
+      <c r="X28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X88" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X90" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X92" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X93" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X95" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X96" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X97" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X98" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X99" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X102" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X103" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X104" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X105" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X106" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X107" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X108" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X109" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X111" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X112" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X113" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X114" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X115" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X117" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X118" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X119" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -4438,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="59" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:A87"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0A22F1-59AF-0542-9DE0-6BB18C79202E}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4855053E-BAAF-3E41-A95B-6E59E6459A14}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9580" windowWidth="29400" windowHeight="7980" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16820" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="MPI" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="247">
   <si>
     <t>% Time</t>
   </si>
@@ -1165,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView topLeftCell="A49" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4435,11 +4436,1572 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>64.78</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>196524</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>60.72</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="N6" s="4">
+        <v>703141</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="3">
+        <v>56.35</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="X6" s="4">
+        <v>2217393</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4442392</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="N7" s="4">
+        <v>33129936</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="3">
+        <v>17.48</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="X7" s="4">
+        <v>99052047</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>11.78</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="4">
+        <v>49945</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9.27</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="X8" s="4">
+        <v>700025</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="4">
+        <v>557197</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N9" s="4">
+        <v>33129938</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4442394</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="3">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="V10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1657373</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>221960</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="V11" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>156552</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1780846</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="V12" s="3">
+        <v>3.42</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X12" s="4">
+        <v>7238416</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39972</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="4">
+        <v>543141</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="V13" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="X13" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>27745</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="4">
+        <v>96981</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="X14" s="4">
+        <v>99052049</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="3">
+        <v>6</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="X15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>27.91</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="X16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>775848</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X17" s="4">
+        <v>304329</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>160000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V18" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>4</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>2434632</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>560020</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>170.2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4855053E-BAAF-3E41-A95B-6E59E6459A14}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940ED713-6DCE-8B42-A7EC-924C3510FCA8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16820" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
-    <sheet name="MPI" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Barnes Sequential" sheetId="3" r:id="rId2"/>
+    <sheet name="MPI" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="550">
   <si>
     <t>% Time</t>
   </si>
@@ -779,6 +780,915 @@
   </si>
   <si>
     <t>It 35 ||Prank 0/7 | [Particle -102, 7] position ([1394.754617:-2763.323793:2113.523203])force ([-5941939187116525.000000:287151036476186944.000000:-151863144720368192.000000]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>50 iterations</t>
+  </si>
+  <si>
+    <t>n=10000</t>
+  </si>
+  <si>
+    <t>  %   cumulative   self              self     total           </t>
+  </si>
+  <si>
+    <t> time   seconds   seconds    calls   s/call   s/call  name    </t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 2.539820 [s]</t>
+  </si>
+  <si>
+    <t> time   seconds   seconds    calls  ms/call  ms/call  name    </t>
+  </si>
+  <si>
+    <t> 55.68      0.55     0.55  1509913     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 19.92      0.74     0.20 32853289     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t> 16.86      0.91     0.17   327118     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.07      0.94     0.03 32853291     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  3.07      0.97     0.03       50     0.60     4.00  move_all_particles</t>
+  </si>
+  <si>
+    <t>  1.02      0.98     0.01  1186228     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00  2857955     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00  1369536     0.00     0.00  init_node</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00   323685     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00   171192     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00       52     0.00     0.00  clean_tree</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00       50     0.00    12.11  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00       50     0.00     3.31  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        2     0.00     0.00  min</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     5.05  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00   976.27  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>  0.00      0.98     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>-O1</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 2.047517 [s]</t>
+  </si>
+  <si>
+    <t> 64.41      0.41     0.41  1509913     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 16.70      0.51     0.11 32853289     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t> 11.13      0.58     0.07   327118     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.39      0.60     0.02 32853289     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.59      0.61     0.01  1186228     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  1.59      0.62     0.01       52     0.19     0.19  clean_tree</t>
+  </si>
+  <si>
+    <t>  1.59      0.63     0.01       50     0.20     1.76  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.80      0.63     0.01                             main</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00  2857955     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00   323685     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00   171192     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00       50     0.00     8.27  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00       50     0.00     2.26  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     2.14  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00   626.22  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>  0.00      0.63     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>-O2</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 1.990886 [s]</t>
+  </si>
+  <si>
+    <t> 54.10      0.27     0.27  1509913     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 16.03      0.35     0.08 32853289     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t> 12.02      0.41     0.06   650803     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  6.01      0.44     0.03  2857955     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  4.01      0.46     0.02       50     0.40     2.18  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.00      0.47     0.01 32853289     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.00      0.48     0.01       51     0.20     0.20  clean_tree</t>
+  </si>
+  <si>
+    <t>  2.00      0.49     0.01       50     0.20     1.74  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  2.00      0.50     0.01                             second</t>
+  </si>
+  <si>
+    <t>  0.00      0.50     0.00   171192     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.00      0.50     0.00       50     0.00     5.67  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.00      0.50     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 10000 particles : 1.296276 [s]</t>
+  </si>
+  <si>
+    <t> time   seconds   seconds    calls  us/call  us/call  name    </t>
+  </si>
+  <si>
+    <t> 68.97      0.31     0.31      375   827.59   854.02  getMinMax</t>
+  </si>
+  <si>
+    <t> 13.35      0.37     0.06   650803     0.09     0.15  insert_particle</t>
+  </si>
+  <si>
+    <t>  6.67      0.40     0.03  2857955     0.01     0.01  get_octrant</t>
+  </si>
+  <si>
+    <t>  4.45      0.42     0.02      400    50.06   296.49  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.22      0.43     0.01 32853289     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.22      0.44     0.01  1186228     0.01     0.01  compute_force_particle</t>
+  </si>
+  <si>
+    <t>  2.22      0.45     0.01   171192     0.06     0.06  create_children</t>
+  </si>
+  <si>
+    <t>  0.00      0.45     0.00      400     0.00    25.27  compute_bh_force</t>
+  </si>
+  <si>
+    <t>-O3</t>
+  </si>
+  <si>
+    <t>It remains 2170 particles in space</t>
+  </si>
+  <si>
+    <t>[Particle 8] position ([1937.175568:110.473080:-298.049049]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 40000 particles : 5.695316 [s]</t>
+  </si>
+  <si>
+    <t> 79.09      1.58     1.58      809     1.96     2.01  getMinMax</t>
+  </si>
+  <si>
+    <t>  8.01      1.74     0.16  1899582     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.00      1.80     0.06      400     0.15     0.30  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  3.00      1.86     0.06  3206407     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t>  2.50      1.91     0.05      400     0.13     0.62  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.25      1.96     0.05 143076064     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.00      1.98     0.02  6279588     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  1.00      2.00     0.02   459073     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.25      2.00     0.01                             second</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 40000 particles : 8.671809 [s]</t>
+  </si>
+  <si>
+    <t> 46.38      1.00     1.00  4155113     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 30.15      1.65     0.65 143076064     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  7.89      1.82     0.17  1899582     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.25      1.89     0.07       50     1.40    27.55  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  2.78      1.95     0.06       50     1.20     5.91  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.32      2.00     0.05   459073     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  2.32      2.05     0.05       51     0.98     0.98  clean_tree</t>
+  </si>
+  <si>
+    <t>  1.86      2.09     0.04 143076064     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.86      2.13     0.04       50     0.80     8.51  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.93      2.15     0.02  6279588     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.46      2.16     0.01                             second</t>
+  </si>
+  <si>
+    <t>  0.00      2.16     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 40000 particles : 7.960167 [s]</t>
+  </si>
+  <si>
+    <t> 52.57      1.07     1.07  4155113     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 27.15      1.62     0.55 143076064     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  4.44      1.71     0.09   950876     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.71      1.76     0.06  3206407     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  2.71      1.82     0.06       52     0.00     0.00  clean_tree</t>
+  </si>
+  <si>
+    <t>  2.47      1.87     0.05 143076064     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.73      1.90     0.04       50     0.00     0.00  move_all_particles</t>
+  </si>
+  <si>
+    <t>  1.48      1.93     0.03  6279588     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  1.48      1.96     0.03       50     0.00     0.03  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.99      1.98     0.02   459073     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.99      2.00     0.02       50     0.00     0.01  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.99      2.02     0.02                             main</t>
+  </si>
+  <si>
+    <t>  0.25      2.03     0.01   948706     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.01  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     2.01  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>  0.00      2.03     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>n=40000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 40000 particles : 10.247232 [s]</t>
+  </si>
+  <si>
+    <t> 58.24      2.25     2.25  4155113     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 20.88      3.05     0.81 143076064     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  7.00      3.32     0.27   950876     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.33      3.41     0.09 143076066     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.33      3.50     0.09  3206407     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  2.20      3.59     0.09       50     0.00     0.05  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  2.08      3.67     0.08       50     0.00     0.01  move_all_particles</t>
+  </si>
+  <si>
+    <t>  1.69      3.73     0.07       52     0.00     0.00  clean_tree</t>
+  </si>
+  <si>
+    <t>  1.17      3.78     0.05  6279588     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.91      3.81     0.04  3672584     0.00     0.00  init_node</t>
+  </si>
+  <si>
+    <t>  0.78      3.84     0.03       50     0.00     0.01  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.52      3.87     0.02        2     0.01     0.01  min</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00   948706     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00   459073     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.01  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.02  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     3.87  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>  0.00      3.87     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>It remains 24858 particles in space</t>
+  </si>
+  <si>
+    <t>[Particle 8] position ([-13.352630:129.764863:12361.335642]) M = 1.000000</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 32768 particles : 13.760373 [s]</t>
+  </si>
+  <si>
+    <t> 54.02      2.87     2.87  6164778     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 20.89      3.99     1.11 184695787     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t> 11.29      4.59     0.60  1452385     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.11      4.75     0.17 184695789     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.63      4.89     0.14 13274145     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  1.98      5.00     0.11  4737251     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  1.79      5.09     0.10       50     0.00     0.07  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  1.04      5.15     0.06       52     0.00     0.00  clean_tree</t>
+  </si>
+  <si>
+    <t>  0.75      5.19     0.04  5509952     0.00     0.00  init_node</t>
+  </si>
+  <si>
+    <t>  0.66      5.22     0.04       50     0.00     0.02  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.66      5.26     0.04        2     0.02     0.02  min</t>
+  </si>
+  <si>
+    <t>  0.56      5.29     0.03       50     0.00     0.02  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.38      5.31     0.02   688744     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.19      5.32     0.01  1427527     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.19      5.33     0.01        1     0.01     0.01  read_test_case</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     0.02  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     0.04  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     5.32  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      5.33     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>n=32768</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 32768 particles : 10.634044 [s]</t>
+  </si>
+  <si>
+    <t> 52.24      1.46     1.46  6164778     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 27.20      2.22     0.76 184695787     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  8.95      2.47     0.25  1452385     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.50      2.54     0.07 184695787     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.33      2.61     0.07       52     0.00     0.00  clean_tree</t>
+  </si>
+  <si>
+    <t>  1.07      2.64     0.03  4737251     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  1.07      2.67     0.03   688744     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.72      2.69     0.02 13274145     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.72      2.71     0.02       50     0.00     0.04  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.72      2.73     0.02       50     0.00     0.01  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.72      2.75     0.02       50     0.00     0.01  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.72      2.77     0.02                             main</t>
+  </si>
+  <si>
+    <t>  0.36      2.78     0.01        1     0.01     0.01  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.36      2.79     0.01        1     0.01     0.01  read_test_case</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00  1427527     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        1     0.00     0.01  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        1     0.00     2.76  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00      2.79     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 32768 particles : 11.629962 [s]</t>
+  </si>
+  <si>
+    <t> 48.36      1.68     1.68  6164778     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 33.20      2.83     1.15 184695787     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  8.37      3.12     0.29  2879912     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.31      3.20     0.08 13274145     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  2.17      3.28     0.08 184695787     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.02      3.35     0.07   688744     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  1.59      3.40     0.06                             second</t>
+  </si>
+  <si>
+    <t>  0.87      3.43     0.03       51     0.59     0.59  clean_tree</t>
+  </si>
+  <si>
+    <t>  0.58      3.45     0.02       50     0.40    45.10  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  0.58      3.47     0.02       50     0.40     9.12  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.00      3.47     0.00       50     0.00    13.41  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.00      3.47     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 32768 particles : 7.248632 [s]</t>
+  </si>
+  <si>
+    <t> 77.26      2.13     2.13      102    20.91    21.44  getMinMax</t>
+  </si>
+  <si>
+    <t> 11.97      2.46     0.33  2879912     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.18      2.52     0.06      400     0.15     0.28  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  2.18      2.58     0.06   688744     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  1.99      2.64     0.06 184695787     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.81      2.69     0.05  4737251     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t>  1.45      2.73     0.04 13274145     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  1.09      2.76     0.03      400     0.08     1.14  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.18      2.76     0.01                             second</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 140005 particles : 62.003243 [s]</t>
+  </si>
+  <si>
+    <t>n=140005</t>
+  </si>
+  <si>
+    <t> 79.97     18.88    18.88      809    23.34    24.55  getMinMax</t>
+  </si>
+  <si>
+    <t>  7.12     20.56     1.68 14140505     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  4.18     21.55     0.99 1467164353     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.76     22.20     0.65      400     1.63     2.71  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  2.04     22.68     0.48      400     1.20     6.38  move_all_particles</t>
+  </si>
+  <si>
+    <t>  1.82     23.11     0.43 23482425     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t>  0.93     23.33     0.22 72521734     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.81     23.52     0.19  3422485     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.45     23.63     0.11                             second</t>
+  </si>
+  <si>
+    <t>  0.04     23.64     0.01                             init_node</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 140005 particles : 98.757028 [s]</t>
+  </si>
+  <si>
+    <t> 56.23     13.59    13.59 30482675     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 24.25     19.45     5.86 1467164353     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  6.22     20.95     1.50 14140505     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  2.67     21.60     0.65 1467164353     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.38     22.18     0.58       50    11.52    51.60  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.36     22.75     0.57       51    11.20    11.20  clean_tree</t>
+  </si>
+  <si>
+    <t>  2.24     23.29     0.54       50    10.82   320.60  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  1.28     23.60     0.31  3422485     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  1.02     23.84     0.25                             second</t>
+  </si>
+  <si>
+    <t>  0.87     24.05     0.21 72521734     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.46     24.16     0.11       50     2.20    94.37  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.04     24.17     0.01                             init_node</t>
+  </si>
+  <si>
+    <t>  0.04     24.18     0.01                             read_test_case</t>
+  </si>
+  <si>
+    <t>  0.02     24.19     0.01                             move_particle</t>
+  </si>
+  <si>
+    <t>  0.00     24.19     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>USE -O3 WHEN RUNNING PARALLEL CODE</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 140005 particles : 95.723506 [s]</t>
+  </si>
+  <si>
+    <t> 55.16     13.65    13.65 30482675     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 23.93     19.57     5.92 1467164353     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  4.70     20.73     1.16  7140255     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.14     21.51     0.78       50     0.02     0.06  move_all_particles</t>
+  </si>
+  <si>
+    <t>  2.49     22.12     0.62 1467164353     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.35     22.70     0.58       52     0.01     0.01  clean_tree</t>
+  </si>
+  <si>
+    <t>  2.27     23.27     0.56       50     0.01     0.32  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  1.84     23.72     0.46 23482425     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  1.28     24.04     0.32 72521734     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.99     24.28     0.25                             main</t>
+  </si>
+  <si>
+    <t>  0.93     24.51     0.23  3422485     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.45     24.62     0.11       50     0.00     0.09  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.04     24.63     0.01        1     0.01     0.01  read_test_case</t>
+  </si>
+  <si>
+    <t>  0.02     24.64     0.01                             init_node</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00  7000250     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00     0.03  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00     0.00  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00    24.38  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00     24.64     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>N-Body barnes-hut for 140005 particles : 120.743106 [s]</t>
+  </si>
+  <si>
+    <t> 59.36     26.96    26.96 30482675     0.00     0.00  compute_force_particle</t>
+  </si>
+  <si>
+    <t> 20.10     36.10     9.13 1467164353     0.00     0.00  compute_force</t>
+  </si>
+  <si>
+    <t>  9.58     40.45     4.35  7140255     0.00     0.00  insert_particle</t>
+  </si>
+  <si>
+    <t>  3.01     41.81     1.37 1467164355     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  2.30     42.86     1.05       50     0.02     0.60  compute_bh_force</t>
+  </si>
+  <si>
+    <t>  1.26     43.43     0.57 23482425     0.00     0.00  move_particle</t>
+  </si>
+  <si>
+    <t>  1.21     43.98     0.55       50     0.01     0.12  move_all_particles</t>
+  </si>
+  <si>
+    <t>  0.95     44.41     0.43 72521734     0.00     0.00  get_octrant</t>
+  </si>
+  <si>
+    <t>  0.83     44.79     0.38       52     0.01     0.01  clean_tree</t>
+  </si>
+  <si>
+    <t>  0.66     45.09     0.30       50     0.01     0.18  compute_force_in_node</t>
+  </si>
+  <si>
+    <t>  0.35     45.25     0.16        2     0.08     0.08  min</t>
+  </si>
+  <si>
+    <t>  0.29     45.38     0.13 27379880     0.00     0.00  init_node</t>
+  </si>
+  <si>
+    <t>  0.09     45.42     0.04  3422485     0.00     0.00  create_children</t>
+  </si>
+  <si>
+    <t>  0.04     45.44     0.02  7000250     0.00     0.00  is_particle_out_of_scope</t>
+  </si>
+  <si>
+    <t>  0.03     45.45     0.02        1     0.02     0.11  construct_bh_tree</t>
+  </si>
+  <si>
+    <t>  0.03     45.47     0.02                             main</t>
+  </si>
+  <si>
+    <t>  0.02     45.48     0.01        1     0.01    45.46  nbodybarneshut</t>
+  </si>
+  <si>
+    <t>  0.02     45.49     0.01        1     0.01     0.01  read_test_case</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        2     0.00     0.00  init_tree</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        1     0.00     0.16  getMinMax</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00     45.49     0.00        1     0.00     0.00  print_particle</t>
   </si>
 </sst>
 </file>
@@ -812,7 +1722,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +1732,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -846,6 +1768,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,7 +2093,7 @@
   <dimension ref="A2:AA153"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4437,20 +5363,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -4475,1521 +5403,1999 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>64.78</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>196524</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3">
-        <v>60.72</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="N6" s="4">
-        <v>703141</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="3">
-        <v>56.35</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2.02</v>
-      </c>
-      <c r="W6" s="3">
-        <v>2.02</v>
-      </c>
-      <c r="X6" s="4">
-        <v>2217393</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4442392</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3">
-        <v>17.61</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="N7" s="4">
-        <v>33129936</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="3">
-        <v>17.48</v>
-      </c>
-      <c r="V7" s="3">
-        <v>2.64</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="X7" s="4">
-        <v>99052047</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>11.78</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="4">
-        <v>49945</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9.27</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="X8" s="4">
-        <v>700025</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>5.89</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="4">
-        <v>557197</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3.24</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="N9" s="4">
-        <v>33129938</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2.66</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="X9" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4442394</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="N10" s="3">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="V10" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="W10" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X10" s="4">
-        <v>1657373</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>221960</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1.04</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="V11" s="3">
-        <v>3.36</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="X11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>156552</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1780846</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="V12" s="3">
-        <v>3.42</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="X12" s="4">
-        <v>7238416</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39972</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N13" s="4">
-        <v>543141</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="V13" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="X13" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>27745</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="4">
-        <v>96981</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="V14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="X14" s="4">
-        <v>99052049</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N15" s="3">
-        <v>6</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="X15" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>27.91</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="V16" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="X16" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7.13</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>775848</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3.57</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="X17" s="4">
-        <v>304329</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>160000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>4</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>2434632</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>560020</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>170.2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>3.57</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>3.58</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AE3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="K5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="U5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AE5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="K6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="U6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AE6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="K7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="U7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AE7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="U8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AE8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="U9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AE9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="U10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AE10" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="K11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="U11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AE11" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="K12" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="U12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AE12" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="K13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="U13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AE13" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="K14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="U14" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AE14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="K15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="U15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AE15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="K16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="U16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AE16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="U17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AE17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="U18" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AE18" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="K19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="U19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AE19" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="K20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="U20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AE20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="K21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="U21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AE21" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="K22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="U22" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AE22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="K23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="U23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AE23" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="K24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="U24" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AE24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="K25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="U25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AE25" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="K26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="U26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AE26" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="K27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="U27" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AE27" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE30" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="K36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="U36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AE36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE57" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE59" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE60" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE61" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE62" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE65" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="K68" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="U68" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AE68" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE69" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE75" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE76" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE79" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE80" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE83" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE84" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE85" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE86" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="AE87" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="AE88" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="AE89" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="AE90" s="1"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="AE91" s="1"/>
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="K92" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="U92" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AE92" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE93" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE94" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE95" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE97" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE98" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE99" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE100" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE101" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE102" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE103" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE104" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE105" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE106" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="K107" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="AE108" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5997,6 +7403,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="368" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940ED713-6DCE-8B42-A7EC-924C3510FCA8}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AJ40" sqref="AJ40"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="109" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7406,7 +7406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940ED713-6DCE-8B42-A7EC-924C3510FCA8}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5DD79E1-1953-4048-9D29-869AF4DE4B14}"/>
   <bookViews>
     <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="109" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5DD79E1-1953-4048-9D29-869AF4DE4B14}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC3AEE66-1A67-B44E-8570-85DCE8CA8BEC}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="1" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
     <sheet name="Barnes Sequential" sheetId="3" r:id="rId2"/>
-    <sheet name="MPI" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="MPI" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1787,10 +1788,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5365,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7403,6 +7400,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7416,7 +7425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC3AEE66-1A67-B44E-8570-85DCE8CA8BEC}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B1E19F-221C-1245-9FBF-15E84318EB2A}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
     <sheet name="Barnes Sequential" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Brute Sequential" sheetId="5" r:id="rId3"/>
     <sheet name="MPI" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7403,7 +7403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B1E19F-221C-1245-9FBF-15E84318EB2A}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653C56A1-5CDA-B64C-9BFC-63DA2018276F}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="740" windowWidth="14900" windowHeight="16780" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="562">
   <si>
     <t>% Time</t>
   </si>
@@ -1690,6 +1690,42 @@
   </si>
   <si>
     <t>  0.00     45.49     0.00        1     0.00     0.00  print_particle</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 50 particles : 108.271514 [s] </t>
+  </si>
+  <si>
+    <t> 89.17     47.10    47.10   500000     0.00     0.00  compute_brute_force</t>
+  </si>
+  <si>
+    <t>  8.36     51.51     4.41 413953804     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.29     52.20     0.68        1     0.68    52.20  nbodybruteforce</t>
+  </si>
+  <si>
+    <t>  0.13     52.27     0.07                             main</t>
+  </si>
+  <si>
+    <t>  0.00     52.27     0.00       50     0.00     0.00  update_positions</t>
+  </si>
+  <si>
+    <t>  0.00     52.27     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00     52.27     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00     52.27     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00     52.27     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t># tasks</t>
+  </si>
+  <si>
+    <t>problem size</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1773,6 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A80" zoomScale="125" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7401,26 +7438,380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AE3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+      <c r="D2">
+        <v>30000</v>
+      </c>
+      <c r="E2">
+        <v>40000</v>
+      </c>
+      <c r="F2">
+        <v>50000</v>
+      </c>
+      <c r="G2">
+        <v>60000</v>
+      </c>
+      <c r="H2">
+        <v>70000</v>
+      </c>
+      <c r="I2">
+        <v>80000</v>
+      </c>
+      <c r="J2">
+        <v>90000</v>
+      </c>
+      <c r="K2">
+        <v>100000</v>
+      </c>
+      <c r="L2">
+        <v>110000</v>
+      </c>
+      <c r="M2">
+        <v>120000</v>
+      </c>
+      <c r="N2">
+        <v>130000</v>
+      </c>
+      <c r="O2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>20000</v>
+      </c>
+      <c r="D13">
+        <v>30000</v>
+      </c>
+      <c r="E13">
+        <v>40000</v>
+      </c>
+      <c r="F13">
+        <v>50000</v>
+      </c>
+      <c r="G13">
+        <v>60000</v>
+      </c>
+      <c r="H13">
+        <v>70000</v>
+      </c>
+      <c r="I13">
+        <v>80000</v>
+      </c>
+      <c r="J13">
+        <v>90000</v>
+      </c>
+      <c r="K13">
+        <v>100000</v>
+      </c>
+      <c r="L13">
+        <v>110000</v>
+      </c>
+      <c r="M13">
+        <v>120000</v>
+      </c>
+      <c r="N13">
+        <v>130000</v>
+      </c>
+      <c r="O13">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653C56A1-5CDA-B64C-9BFC-63DA2018276F}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0987CEF1-DDB1-D743-9D84-39A5380ED127}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="563">
   <si>
     <t>% Time</t>
   </si>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>problem size</t>
+  </si>
+  <si>
+    <t>-O0</t>
   </si>
 </sst>
 </file>
@@ -7623,7 +7626,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:O20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>325</v>
+        <v>562</v>
       </c>
       <c r="B12" t="s">
         <v>561</v>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0987CEF1-DDB1-D743-9D84-39A5380ED127}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF0A317-50B5-364F-AE44-0BAA51B54750}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="651">
   <si>
     <t>% Time</t>
   </si>
@@ -1722,20 +1722,284 @@
     <t>  0.00     52.27     0.00        1     0.00     0.00  read_test_case</t>
   </si>
   <si>
-    <t># tasks</t>
-  </si>
-  <si>
-    <t>problem size</t>
-  </si>
-  <si>
-    <t>-O0</t>
+    <t>Particles</t>
+  </si>
+  <si>
+    <t>1 Process</t>
+  </si>
+  <si>
+    <t>2 Processes</t>
+  </si>
+  <si>
+    <t>4 Processes</t>
+  </si>
+  <si>
+    <t>8 Processes</t>
+  </si>
+  <si>
+    <t>16 Processes</t>
+  </si>
+  <si>
+    <t>32 Processes</t>
+  </si>
+  <si>
+    <t>1.141 s</t>
+  </si>
+  <si>
+    <t>0.736 s</t>
+  </si>
+  <si>
+    <t>0.544 s</t>
+  </si>
+  <si>
+    <t>0.514 s</t>
+  </si>
+  <si>
+    <t>0.501 s</t>
+  </si>
+  <si>
+    <t>1.163 s</t>
+  </si>
+  <si>
+    <t>2.131 s</t>
+  </si>
+  <si>
+    <t>1.353 s</t>
+  </si>
+  <si>
+    <t>1.092 s</t>
+  </si>
+  <si>
+    <t>1.030 s</t>
+  </si>
+  <si>
+    <t>0.878 s</t>
+  </si>
+  <si>
+    <t>1.532 s</t>
+  </si>
+  <si>
+    <t>4.793 s</t>
+  </si>
+  <si>
+    <t>2.925 s</t>
+  </si>
+  <si>
+    <t>2.097 s</t>
+  </si>
+  <si>
+    <t>2.001 s</t>
+  </si>
+  <si>
+    <t>1.629 s</t>
+  </si>
+  <si>
+    <t>2.117 s</t>
+  </si>
+  <si>
+    <t>6.893 s</t>
+  </si>
+  <si>
+    <t>4.233 s</t>
+  </si>
+  <si>
+    <t>2.953 s</t>
+  </si>
+  <si>
+    <t>2.678 s</t>
+  </si>
+  <si>
+    <t>2.222 s</t>
+  </si>
+  <si>
+    <t>2.659 s</t>
+  </si>
+  <si>
+    <t>9.202 s</t>
+  </si>
+  <si>
+    <t>5.607 s</t>
+  </si>
+  <si>
+    <t>4.155 s</t>
+  </si>
+  <si>
+    <t>3.427 s</t>
+  </si>
+  <si>
+    <t>2.957 s</t>
+  </si>
+  <si>
+    <t>3.170 s</t>
+  </si>
+  <si>
+    <t>12.544 s</t>
+  </si>
+  <si>
+    <t>7.560 s</t>
+  </si>
+  <si>
+    <t>5.298 s</t>
+  </si>
+  <si>
+    <t>4.469 s</t>
+  </si>
+  <si>
+    <t>4.161 s</t>
+  </si>
+  <si>
+    <t>3.975 s</t>
+  </si>
+  <si>
+    <t>14.710 s</t>
+  </si>
+  <si>
+    <t>9.029 s</t>
+  </si>
+  <si>
+    <t>6.307 s</t>
+  </si>
+  <si>
+    <t>5.141 s</t>
+  </si>
+  <si>
+    <t>4.303 s</t>
+  </si>
+  <si>
+    <t>4.562 s</t>
+  </si>
+  <si>
+    <t>17.370 s</t>
+  </si>
+  <si>
+    <t>10.407 s</t>
+  </si>
+  <si>
+    <t>7.479 s</t>
+  </si>
+  <si>
+    <t>6.100 s</t>
+  </si>
+  <si>
+    <t>5.651 s</t>
+  </si>
+  <si>
+    <t>5.333 s</t>
+  </si>
+  <si>
+    <t>21.384 s</t>
+  </si>
+  <si>
+    <t>12.967 s</t>
+  </si>
+  <si>
+    <t>9.081 s</t>
+  </si>
+  <si>
+    <t>7.196 s</t>
+  </si>
+  <si>
+    <t>6.674 s</t>
+  </si>
+  <si>
+    <t>6.039 s</t>
+  </si>
+  <si>
+    <t>22.658 s</t>
+  </si>
+  <si>
+    <t>13.758 s</t>
+  </si>
+  <si>
+    <t>9.884 s</t>
+  </si>
+  <si>
+    <t>7.787 s</t>
+  </si>
+  <si>
+    <t>7.224 s</t>
+  </si>
+  <si>
+    <t>6.720 s</t>
+  </si>
+  <si>
+    <t>26.534 s</t>
+  </si>
+  <si>
+    <t>16.072 s</t>
+  </si>
+  <si>
+    <t>11.249 s</t>
+  </si>
+  <si>
+    <t>9.022 s</t>
+  </si>
+  <si>
+    <t>8.097 s</t>
+  </si>
+  <si>
+    <t>7.565 s</t>
+  </si>
+  <si>
+    <t>29.284 s</t>
+  </si>
+  <si>
+    <t>17.899 s</t>
+  </si>
+  <si>
+    <t>12.391 s</t>
+  </si>
+  <si>
+    <t>9.849 s</t>
+  </si>
+  <si>
+    <t>8.922 s</t>
+  </si>
+  <si>
+    <t>8.337 s</t>
+  </si>
+  <si>
+    <t>32.488 s</t>
+  </si>
+  <si>
+    <t>19.956 s</t>
+  </si>
+  <si>
+    <t>13.530 s</t>
+  </si>
+  <si>
+    <t>10.882 s</t>
+  </si>
+  <si>
+    <t>9.194 s</t>
+  </si>
+  <si>
+    <t>9.287 s</t>
+  </si>
+  <si>
+    <t>37.318 s</t>
+  </si>
+  <si>
+    <t>22.545 s</t>
+  </si>
+  <si>
+    <t>15.361 s</t>
+  </si>
+  <si>
+    <t>11.964 s</t>
+  </si>
+  <si>
+    <t>10.191 s</t>
+  </si>
+  <si>
+    <t>9.882 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1747,6 +2011,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1800,7 +2070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1813,6 +2083,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7623,10 +7895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7634,184 +7906,354 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2">
+      <c r="C2" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="B3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>20000</v>
       </c>
-      <c r="D2">
+      <c r="B4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>30000</v>
       </c>
-      <c r="E2">
+      <c r="B5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>40000</v>
       </c>
-      <c r="F2">
+      <c r="B6" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>50000</v>
       </c>
-      <c r="G2">
+      <c r="B7" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>60000</v>
       </c>
-      <c r="H2">
+      <c r="B8" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>70000</v>
       </c>
-      <c r="I2">
+      <c r="B9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>80000</v>
       </c>
-      <c r="J2">
+      <c r="B10" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>90000</v>
       </c>
-      <c r="K2">
+      <c r="B11" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>100000</v>
       </c>
-      <c r="L2">
+      <c r="B12" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>110000</v>
       </c>
-      <c r="M2">
+      <c r="B13" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>120000</v>
       </c>
-      <c r="N2">
+      <c r="B14" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>130000</v>
       </c>
-      <c r="O2">
+      <c r="B15" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>140000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13">
-        <v>20000</v>
-      </c>
-      <c r="D13">
-        <v>30000</v>
-      </c>
-      <c r="E13">
-        <v>40000</v>
-      </c>
-      <c r="F13">
-        <v>50000</v>
-      </c>
-      <c r="G13">
-        <v>60000</v>
-      </c>
-      <c r="H13">
-        <v>70000</v>
-      </c>
-      <c r="I13">
-        <v>80000</v>
-      </c>
-      <c r="J13">
-        <v>90000</v>
-      </c>
-      <c r="K13">
-        <v>100000</v>
-      </c>
-      <c r="L13">
-        <v>110000</v>
-      </c>
-      <c r="M13">
-        <v>120000</v>
-      </c>
-      <c r="N13">
-        <v>130000</v>
-      </c>
-      <c r="O13">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>64</v>
+      <c r="B16" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF0A317-50B5-364F-AE44-0BAA51B54750}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8359C6C-DF62-AA44-A902-BF5EB4F809C5}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="736">
   <si>
     <t>% Time</t>
   </si>
@@ -1722,6 +1722,9 @@
     <t>  0.00     52.27     0.00        1     0.00     0.00  read_test_case</t>
   </si>
   <si>
+    <t>-O0</t>
+  </si>
+  <si>
     <t>Particles</t>
   </si>
   <si>
@@ -1993,6 +1996,258 @@
   </si>
   <si>
     <t>9.882 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 1 processes : 2.440508 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 2 processes : 1.457330 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 4 processes : 1.004053 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 8 processes : 0.836443 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 16 processes : 0.763803 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 10000 particles, 32 processes : 1.438001 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 1 processes : 4.425553 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 2 processes : 2.721560 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 4 processes : 2.016156 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 8 processes : 1.655901 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 16 processes : 1.514027 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 20000 particles, 32 processes : 2.033383 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 1 processes : 9.734754 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 2 processes : 5.714876 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 4 processes : 3.898541 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 8 processes : 3.095662 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 16 processes : 2.732863 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 30000 particles, 32 processes : 2.920263 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 1 processes : 13.741398 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 2 processes : 8.122838 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 4 processes : 5.608799 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 8 processes : 4.304246 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 16 processes : 3.613256 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 40000 particles, 32 processes : 3.924809 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 1 processes : 18.180976 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 2 processes : 10.897744 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 4 processes : 7.140415 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 8 processes : 5.635152 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 16 processes : 4.664665 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 50000 particles, 32 processes : 4.823796 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 1 processes : 24.507483 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 2 processes : 13.948247 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 4 processes : 9.222196 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 8 processes : 7.204714 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 16 processes : 6.310927 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 60000 particles, 32 processes : 6.072712 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 1 processes : 28.366305 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 2 processes : 16.947739 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 4 processes : 11.070550 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 8 processes : 8.509021 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 16 processes : 7.506198 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 70000 particles, 32 processes : 6.912896 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 1 processes : 33.214550 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 2 processes : 19.521199 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 4 processes : 13.159277 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 8 processes : 10.205334 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 16 processes : 8.675838 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 80000 particles, 32 processes : 8.020576 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 1 processes : 41.153194 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 2 processes : 24.171385 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 4 processes : 15.986310 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 8 processes : 11.928477 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 16 processes : 9.759346 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 90000 particles, 32 processes : 9.449830 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 1 processes : 43.032910 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 2 processes : 25.301814 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 4 processes : 16.927332 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 8 processes : 12.932512 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 16 processes : 10.859242 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 100000 particles, 32 processes : 10.437451 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 1 processes : 50.317151 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 2 processes : 29.644160 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 4 processes : 19.644120 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 8 processes : 14.968594 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 16 processes : 12.347764 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 110000 particles, 32 processes : 11.720617 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 1 processes : 54.902252 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 2 processes : 32.216755 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 4 processes : 21.591240 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 8 processes : 16.367586 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 16 processes : 13.391149 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 120000 particles, 32 processes : 12.810418 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 1 processes : 61.618703 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 2 processes : 35.347057 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 4 processes : 23.460454 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 8 processes : 17.806646 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 16 processes : 15.057148 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 130000 particles, 32 processes : 14.249481 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 1 processes : 72.209879 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 2 processes : 40.965371 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 4 processes : 26.860517 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 8 processes : 19.912101 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 16 processes : 16.762162 [s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 32 processes : 15.524172 [s] </t>
   </si>
 </sst>
 </file>
@@ -2082,9 +2337,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7895,10 +8150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="124" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7907,353 +8162,778 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>20000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>30000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>40000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>60000</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>70000</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>80000</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>90000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>110000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>120000</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>130000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>140000</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>10000</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>20000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>30000</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>40000</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>60000</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>70000</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>80000</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>90000</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>100000</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>110000</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>120000</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>130000</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>140000</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>650</v>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8359C6C-DF62-AA44-A902-BF5EB4F809C5}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF366431-FF21-D843-9AE0-E3827D317FFE}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="820">
   <si>
     <t>% Time</t>
   </si>
@@ -2248,6 +2248,258 @@
   </si>
   <si>
     <t xml:space="preserve">N-Body barnes-hut for 140000 particles, 32 processes : 15.524172 [s] </t>
+  </si>
+  <si>
+    <t>2.441 s</t>
+  </si>
+  <si>
+    <t>1.457 s</t>
+  </si>
+  <si>
+    <t>1.004 s</t>
+  </si>
+  <si>
+    <t>0.836 s</t>
+  </si>
+  <si>
+    <t>0.764 s</t>
+  </si>
+  <si>
+    <t>1.438 s</t>
+  </si>
+  <si>
+    <t>4.426 s</t>
+  </si>
+  <si>
+    <t>2.722 s</t>
+  </si>
+  <si>
+    <t>2.016 s</t>
+  </si>
+  <si>
+    <t>1.656 s</t>
+  </si>
+  <si>
+    <t>1.514 s</t>
+  </si>
+  <si>
+    <t>2.033 s</t>
+  </si>
+  <si>
+    <t>9.735 s</t>
+  </si>
+  <si>
+    <t>5.715 s</t>
+  </si>
+  <si>
+    <t>3.899 s</t>
+  </si>
+  <si>
+    <t>3.096 s</t>
+  </si>
+  <si>
+    <t>2.733 s</t>
+  </si>
+  <si>
+    <t>2.920 s</t>
+  </si>
+  <si>
+    <t>13.741 s</t>
+  </si>
+  <si>
+    <t>8.123 s</t>
+  </si>
+  <si>
+    <t>5.609 s</t>
+  </si>
+  <si>
+    <t>4.304 s</t>
+  </si>
+  <si>
+    <t>3.613 s</t>
+  </si>
+  <si>
+    <t>3.925 s</t>
+  </si>
+  <si>
+    <t>18.181 s</t>
+  </si>
+  <si>
+    <t>10.898 s</t>
+  </si>
+  <si>
+    <t>7.140 s</t>
+  </si>
+  <si>
+    <t>5.635 s</t>
+  </si>
+  <si>
+    <t>4.665 s</t>
+  </si>
+  <si>
+    <t>4.824 s</t>
+  </si>
+  <si>
+    <t>24.507 s</t>
+  </si>
+  <si>
+    <t>13.948 s</t>
+  </si>
+  <si>
+    <t>9.222 s</t>
+  </si>
+  <si>
+    <t>7.205 s</t>
+  </si>
+  <si>
+    <t>6.311 s</t>
+  </si>
+  <si>
+    <t>6.073 s</t>
+  </si>
+  <si>
+    <t>28.366 s</t>
+  </si>
+  <si>
+    <t>16.948 s</t>
+  </si>
+  <si>
+    <t>11.071 s</t>
+  </si>
+  <si>
+    <t>8.509 s</t>
+  </si>
+  <si>
+    <t>7.506 s</t>
+  </si>
+  <si>
+    <t>6.913 s</t>
+  </si>
+  <si>
+    <t>33.215 s</t>
+  </si>
+  <si>
+    <t>19.521 s</t>
+  </si>
+  <si>
+    <t>13.159 s</t>
+  </si>
+  <si>
+    <t>10.205 s</t>
+  </si>
+  <si>
+    <t>8.676 s</t>
+  </si>
+  <si>
+    <t>8.021 s</t>
+  </si>
+  <si>
+    <t>41.153 s</t>
+  </si>
+  <si>
+    <t>24.171 s</t>
+  </si>
+  <si>
+    <t>15.986 s</t>
+  </si>
+  <si>
+    <t>11.928 s</t>
+  </si>
+  <si>
+    <t>9.759 s</t>
+  </si>
+  <si>
+    <t>9.450 s</t>
+  </si>
+  <si>
+    <t>43.033 s</t>
+  </si>
+  <si>
+    <t>25.302 s</t>
+  </si>
+  <si>
+    <t>16.927 s</t>
+  </si>
+  <si>
+    <t>12.933 s</t>
+  </si>
+  <si>
+    <t>10.859 s</t>
+  </si>
+  <si>
+    <t>10.437 s</t>
+  </si>
+  <si>
+    <t>50.317 s</t>
+  </si>
+  <si>
+    <t>29.644 s</t>
+  </si>
+  <si>
+    <t>19.644 s</t>
+  </si>
+  <si>
+    <t>14.969 s</t>
+  </si>
+  <si>
+    <t>12.348 s</t>
+  </si>
+  <si>
+    <t>11.721 s</t>
+  </si>
+  <si>
+    <t>54.902 s</t>
+  </si>
+  <si>
+    <t>32.217 s</t>
+  </si>
+  <si>
+    <t>21.591 s</t>
+  </si>
+  <si>
+    <t>16.368 s</t>
+  </si>
+  <si>
+    <t>13.391 s</t>
+  </si>
+  <si>
+    <t>12.810 s</t>
+  </si>
+  <si>
+    <t>61.619 s</t>
+  </si>
+  <si>
+    <t>35.347 s</t>
+  </si>
+  <si>
+    <t>23.460 s</t>
+  </si>
+  <si>
+    <t>17.807 s</t>
+  </si>
+  <si>
+    <t>15.057 s</t>
+  </si>
+  <si>
+    <t>14.249 s</t>
+  </si>
+  <si>
+    <t>72.210 s</t>
+  </si>
+  <si>
+    <t>40.965 s</t>
+  </si>
+  <si>
+    <t>26.861 s</t>
+  </si>
+  <si>
+    <t>19.912 s</t>
+  </si>
+  <si>
+    <t>16.762 s</t>
+  </si>
+  <si>
+    <t>15.524 s</t>
   </si>
 </sst>
 </file>
@@ -8152,8 +8404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="124" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8511,17 +8763,362 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>20000</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>30000</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>40000</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>50000</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>60000</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>70000</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>80000</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>90000</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>110000</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>120000</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>130000</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>140000</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>653</v>
       </c>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF366431-FF21-D843-9AE0-E3827D317FFE}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB471A4-BD76-E343-B76B-C628B6B46D59}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="830">
   <si>
     <t>% Time</t>
   </si>
@@ -1692,36 +1692,6 @@
     <t>  0.00     45.49     0.00        1     0.00     0.00  print_particle</t>
   </si>
   <si>
-    <t>N-Body brute force for 50 particles : 108.271514 [s] </t>
-  </si>
-  <si>
-    <t> 89.17     47.10    47.10   500000     0.00     0.00  compute_brute_force</t>
-  </si>
-  <si>
-    <t>  8.36     51.51     4.41 413953804     0.00     0.00  max</t>
-  </si>
-  <si>
-    <t>  1.29     52.20     0.68        1     0.68    52.20  nbodybruteforce</t>
-  </si>
-  <si>
-    <t>  0.13     52.27     0.07                             main</t>
-  </si>
-  <si>
-    <t>  0.00     52.27     0.00       50     0.00     0.00  update_positions</t>
-  </si>
-  <si>
-    <t>  0.00     52.27     0.00        2     0.00     0.00  second</t>
-  </si>
-  <si>
-    <t>  0.00     52.27     0.00        1     0.00     0.00  get_nbr_particles</t>
-  </si>
-  <si>
-    <t>  0.00     52.27     0.00        1     0.00     0.00  print_parameters</t>
-  </si>
-  <si>
-    <t>  0.00     52.27     0.00        1     0.00     0.00  read_test_case</t>
-  </si>
-  <si>
     <t>-O0</t>
   </si>
   <si>
@@ -2500,6 +2470,66 @@
   </si>
   <si>
     <t>15.524 s</t>
+  </si>
+  <si>
+    <t> 88.74     49.76    49.76   500000     0.00     0.00  compute_brute_force</t>
+  </si>
+  <si>
+    <t> 10.46     55.62     5.86 413953804     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  0.99     56.18     0.56                             main</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00       50     0.00     0.00  update_positions</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00        1     0.00    55.62  nbodybruteforce</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00     56.18     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 50 particles : 108.167083 [s] </t>
+  </si>
+  <si>
+    <t>N-Body brute force for 50 particles : 1793.834048 [s] </t>
+  </si>
+  <si>
+    <t> 88.65    758.23   758.23  2000000     0.00     0.00  compute_brute_force</t>
+  </si>
+  <si>
+    <t>  9.04    835.53    77.29 2688588672     0.00     0.00  max</t>
+  </si>
+  <si>
+    <t>  1.27    846.36    10.83        1    10.83   846.39  nbodybruteforce</t>
+  </si>
+  <si>
+    <t>  0.05    846.78     0.42                             main</t>
+  </si>
+  <si>
+    <t>  0.00    846.81     0.03       50     0.00     0.00  update_positions</t>
+  </si>
+  <si>
+    <t>  0.00    846.81     0.00        2     0.00     0.00  second</t>
+  </si>
+  <si>
+    <t>  0.00    846.81     0.00        1     0.00     0.00  get_nbr_particles</t>
+  </si>
+  <si>
+    <t>  0.00    846.81     0.00        1     0.00     0.00  print_parameters</t>
+  </si>
+  <si>
+    <t>  0.00    846.81     0.00        1     0.00     0.00  read_test_case</t>
   </si>
 </sst>
 </file>
@@ -2607,6 +2637,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2908,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AF904-0670-B64A-BE6F-B666A3BE6420}">
   <dimension ref="A2:AA153"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -6181,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="125" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="69" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -8222,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8316,75 +8350,111 @@
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>551</v>
+        <v>810</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>552</v>
+        <v>811</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>553</v>
+        <v>812</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>554</v>
+        <v>813</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>555</v>
+        <v>814</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>556</v>
+        <v>815</v>
       </c>
       <c r="B11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>557</v>
+        <v>816</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>558</v>
+        <v>817</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>559</v>
+        <v>818</v>
       </c>
       <c r="B14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>550</v>
+        <v>819</v>
       </c>
       <c r="B16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -8404,8 +8474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G33"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8420,25 +8490,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8446,22 +8516,22 @@
         <v>10000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8469,22 +8539,22 @@
         <v>20000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8492,22 +8562,22 @@
         <v>30000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8515,22 +8585,22 @@
         <v>40000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8538,22 +8608,22 @@
         <v>50000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -8561,22 +8631,22 @@
         <v>60000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -8584,22 +8654,22 @@
         <v>70000</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8607,22 +8677,22 @@
         <v>80000</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8630,22 +8700,22 @@
         <v>90000</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8653,22 +8723,22 @@
         <v>100000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8676,22 +8746,22 @@
         <v>110000</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -8699,22 +8769,22 @@
         <v>120000</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -8722,22 +8792,22 @@
         <v>130000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -8745,50 +8815,50 @@
         <v>140000</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -8796,22 +8866,22 @@
         <v>10000</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -8819,22 +8889,22 @@
         <v>20000</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -8842,22 +8912,22 @@
         <v>30000</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -8865,22 +8935,22 @@
         <v>40000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -8888,22 +8958,22 @@
         <v>50000</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -8911,22 +8981,22 @@
         <v>60000</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -8934,22 +9004,22 @@
         <v>70000</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -8957,22 +9027,22 @@
         <v>80000</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -8980,22 +9050,22 @@
         <v>90000</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -9003,22 +9073,22 @@
         <v>100000</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -9026,22 +9096,22 @@
         <v>110000</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -9049,22 +9119,22 @@
         <v>120000</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -9072,22 +9142,22 @@
         <v>130000</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -9095,442 +9165,442 @@
         <v>140000</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -9542,7 +9612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="75" workbookViewId="0">
       <selection activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB471A4-BD76-E343-B76B-C628B6B46D59}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB65AC94-D8B0-634C-940D-98361D21E9A2}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
     <sheet name="Barnes Sequential" sheetId="3" r:id="rId2"/>
     <sheet name="Brute Sequential" sheetId="5" r:id="rId3"/>
-    <sheet name="MPI" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="CUDA" sheetId="6" r:id="rId4"/>
+    <sheet name="MPI" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="836">
   <si>
     <t>% Time</t>
   </si>
@@ -2530,6 +2531,24 @@
   </si>
   <si>
     <t>  0.00    846.81     0.00        1     0.00     0.00  read_test_case</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 140005 particles and 50 iterations : 0.458807 [s]</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 40000 particles and 50 iterations : 0.141292 [s]</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 32768 particles and 50 iterations : 1.361747 [s]</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 10000 particles and 50 iterations : 0.556579 [s]</t>
+  </si>
+  <si>
+    <t>block_size</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2622,6 +2641,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6215,8 +6235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C847-FF5D-3249-8C1E-25B2DBDD22E7}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="69" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A15" zoomScale="86" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8254,10 +8274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8456,14 +8476,34 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>830</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8471,10 +8511,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D650A3-C7A9-9F41-B8F0-A77D5572BCF1}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="14">
+        <v>140005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEBF990-5CC1-FE43-A21A-97A57B4FF14F}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -9608,7 +9731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98581D7-9AE7-7447-9A89-6044BC25F4EA}">
   <dimension ref="A3:X119"/>
   <sheetViews>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB65AC94-D8B0-634C-940D-98361D21E9A2}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0990FE7F-D0D3-D448-8017-2CCF91803E8C}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8515,7 +8515,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8576,6 +8576,9 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>256</v>
+      </c>
+      <c r="B12">
+        <v>0.45880700000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0990FE7F-D0D3-D448-8017-2CCF91803E8C}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41C14C7-654C-7841-AD72-4E36AA1E1C13}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="838">
   <si>
     <t>% Time</t>
   </si>
@@ -2549,6 +2549,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>N-Body brute force for 50 particles : 1401.828874 [s] </t>
   </si>
 </sst>
 </file>
@@ -8276,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8475,6 +8481,9 @@
       <c r="K16" s="1" t="s">
         <v>820</v>
       </c>
+      <c r="U16" s="1" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -8514,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D650A3-C7A9-9F41-B8F0-A77D5572BCF1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8537,15 +8546,24 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6">
+        <v>108.998758</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41C14C7-654C-7841-AD72-4E36AA1E1C13}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49789D63-CFA0-C042-ABE6-26EDF7F0AC8A}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="2" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
+    <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling" sheetId="1" r:id="rId1"/>
@@ -8282,7 +8282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -8523,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D650A3-C7A9-9F41-B8F0-A77D5572BCF1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8607,6 +8607,9 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>0.31645499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49789D63-CFA0-C042-ABE6-26EDF7F0AC8A}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC1937D-B8C0-C44F-AE8B-74E2E84B63F5}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8524,7 +8524,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8602,6 +8602,9 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>512</v>
+      </c>
+      <c r="B13">
+        <v>0.373469</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC1937D-B8C0-C44F-AE8B-74E2E84B63F5}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6A2F4F-7BE0-FA40-B956-71708E47A25B}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8524,7 +8524,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8589,6 +8589,9 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.47634799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6A2F4F-7BE0-FA40-B956-71708E47A25B}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25521096-9ECB-234C-8665-DAC624F8196A}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8524,7 +8524,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8584,6 +8584,9 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64</v>
+      </c>
+      <c r="B10">
+        <v>0.49813800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25521096-9ECB-234C-8665-DAC624F8196A}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB334103-B85F-1347-B369-7C0457870877}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8524,7 +8524,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8579,6 +8579,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0.35066700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB334103-B85F-1347-B369-7C0457870877}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{688304AE-AC48-F643-8A5E-EF0729EA9EB1}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8575,6 +8575,9 @@
       <c r="A8">
         <v>16</v>
       </c>
+      <c r="B8">
+        <v>0.59558299999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{688304AE-AC48-F643-8A5E-EF0729EA9EB1}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C749881-0B02-0647-8086-58B90AD2E09B}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -8282,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8523,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D650A3-C7A9-9F41-B8F0-A77D5572BCF1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8569,6 +8569,9 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
+      </c>
+      <c r="B7">
+        <v>56.161709999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">

--- a/python things/final_project.xlsx
+++ b/python things/final_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epflch-my.sharepoint.com/personal/carlos_colladocapell_epfl_ch/Documents/Fall 2023/MATH-454 Parallel and high-performance computing/GitLab/final_project/python things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C749881-0B02-0647-8086-58B90AD2E09B}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{00996E35-032C-AC46-BD88-FC0EA127BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD2E6C3-A7DB-7241-9761-91B8A2B1F457}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="16780" activeTab="3" xr2:uid="{A85BE527-750F-D341-B4BA-EA0C8FBBE84B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="837">
   <si>
     <t>% Time</t>
   </si>
@@ -2549,9 +2549,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>N-Body brute force for 50 particles : 1401.828874 [s] </t>
@@ -8282,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA832F96-6FAC-104A-AAF9-415E21B03F07}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8482,34 +8479,46 @@
         <v>820</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <f>88.65+9.04+1.27</f>
+        <v>98.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f>100-K19</f>
+        <v>1.0400000000000063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>830</v>
       </c>
@@ -8523,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D650A3-C7A9-9F41-B8F0-A77D5572BCF1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8540,22 +8549,6 @@
       </c>
       <c r="B3" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8640,7 +8633,7 @@
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
